--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43310,6 +43310,41 @@
         <v>5400</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>16200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43345,6 +43345,41 @@
         <v>16200</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43380,6 +43380,41 @@
         <v>1300</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43415,6 +43415,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43452,6 +43452,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>37700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43487,6 +43487,41 @@
         <v>37700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>22100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43522,6 +43522,41 @@
         <v>22100</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>17600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43557,6 +43557,43 @@
         <v>17600</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43594,6 +43594,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>14000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43629,6 +43629,41 @@
         <v>14000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>34000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43664,6 +43664,41 @@
         <v>34000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>7800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43699,6 +43699,43 @@
         <v>7800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43736,6 +43736,76 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>268000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43806,6 +43806,76 @@
         <v>268000</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>208600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43876,6 +43876,41 @@
         <v>208600</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>97500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43911,6 +43911,41 @@
         <v>97500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>102000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43946,6 +43946,41 @@
         <v>102000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>178100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43981,6 +43981,41 @@
         <v>178100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>127700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44016,6 +44016,76 @@
         <v>127700</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>183300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44086,6 +44086,41 @@
         <v>183300</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44121,6 +44121,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>533100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2271"/>
+  <dimension ref="A1:I2272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80241,6 +80241,41 @@
         <v>533100</v>
       </c>
     </row>
+    <row r="2272">
+      <c r="A2272" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2272" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2272" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2272" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F2272" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G2272" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="H2272" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="I2272" t="n">
+        <v>1100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2272"/>
+  <dimension ref="A1:I2273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80276,6 +80276,41 @@
         <v>1100</v>
       </c>
     </row>
+    <row r="2273">
+      <c r="A2273" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2273" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2273" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2273" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F2273" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2273" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H2273" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2273" t="n">
+        <v>530000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2273"/>
+  <dimension ref="A1:I2274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80311,6 +80311,41 @@
         <v>530000</v>
       </c>
     </row>
+    <row r="2274">
+      <c r="A2274" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2274" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2274" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F2274" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G2274" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H2274" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I2274" t="n">
+        <v>672000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2274"/>
+  <dimension ref="A1:I2275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80346,6 +80346,43 @@
         <v>672000</v>
       </c>
     </row>
+    <row r="2275">
+      <c r="A2275" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2275" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2275" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2275" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F2275" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G2275" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H2275" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I2275" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2275"/>
+  <dimension ref="A1:I2276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80383,6 +80383,41 @@
         </is>
       </c>
     </row>
+    <row r="2276">
+      <c r="A2276" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2276" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2276" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2276" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2276" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G2276" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H2276" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2276" t="n">
+        <v>292700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2276"/>
+  <dimension ref="A1:I2277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80418,6 +80418,41 @@
         <v>292700</v>
       </c>
     </row>
+    <row r="2277">
+      <c r="A2277" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2277" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2277" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2277" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F2277" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G2277" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H2277" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I2277" t="n">
+        <v>144000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2277"/>
+  <dimension ref="A1:I2278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80453,6 +80453,41 @@
         <v>144000</v>
       </c>
     </row>
+    <row r="2278">
+      <c r="A2278" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2278" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2278" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2278" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F2278" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G2278" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2278" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I2278" t="n">
+        <v>28200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2278"/>
+  <dimension ref="A1:I2279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80488,6 +80488,41 @@
         <v>28200</v>
       </c>
     </row>
+    <row r="2279">
+      <c r="A2279" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2279" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2279" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F2279" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G2279" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H2279" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I2279" t="n">
+        <v>117800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2279"/>
+  <dimension ref="A1:I2280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80523,6 +80523,41 @@
         <v>117800</v>
       </c>
     </row>
+    <row r="2280">
+      <c r="A2280" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2280" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2280" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2280" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F2280" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2280" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H2280" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I2280" t="n">
+        <v>46000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2280"/>
+  <dimension ref="A1:I2281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80558,6 +80558,41 @@
         <v>46000</v>
       </c>
     </row>
+    <row r="2281">
+      <c r="A2281" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2281" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2281" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2281" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G2281" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2281" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I2281" t="n">
+        <v>112300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2281"/>
+  <dimension ref="A1:I2282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80593,6 +80593,41 @@
         <v>112300</v>
       </c>
     </row>
+    <row r="2282">
+      <c r="A2282" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2282" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2282" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2282" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F2282" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G2282" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2282" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I2282" t="n">
+        <v>143900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2282"/>
+  <dimension ref="A1:I2283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80628,6 +80628,41 @@
         <v>143900</v>
       </c>
     </row>
+    <row r="2283">
+      <c r="A2283" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2283" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2283" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F2283" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G2283" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H2283" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I2283" t="n">
+        <v>82300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2283"/>
+  <dimension ref="A1:I2284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80663,6 +80663,41 @@
         <v>82300</v>
       </c>
     </row>
+    <row r="2284">
+      <c r="A2284" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2284" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2284" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2284" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F2284" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G2284" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H2284" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I2284" t="n">
+        <v>170700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2284"/>
+  <dimension ref="A1:I2285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80698,6 +80698,41 @@
         <v>170700</v>
       </c>
     </row>
+    <row r="2285">
+      <c r="A2285" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2285" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2285" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2285" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F2285" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G2285" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="H2285" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2285" t="n">
+        <v>34300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2285"/>
+  <dimension ref="A1:I2286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80733,6 +80733,41 @@
         <v>34300</v>
       </c>
     </row>
+    <row r="2286">
+      <c r="A2286" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2286" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F2286" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G2286" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="H2286" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2286" t="n">
+        <v>193300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2435"/>
+  <dimension ref="A1:I2436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85983,6 +85983,41 @@
         <v>193300</v>
       </c>
     </row>
+    <row r="2436">
+      <c r="A2436" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2436" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2436" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2436" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F2436" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G2436" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2436" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I2436" t="n">
+        <v>129000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2436"/>
+  <dimension ref="A1:I2437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86018,6 +86018,41 @@
         <v>129000</v>
       </c>
     </row>
+    <row r="2437">
+      <c r="A2437" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2437" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2437" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2437" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F2437" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G2437" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H2437" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2437" t="n">
+        <v>153700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2437"/>
+  <dimension ref="A1:I2438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86053,6 +86053,41 @@
         <v>153700</v>
       </c>
     </row>
+    <row r="2438">
+      <c r="A2438" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2438" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2438" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2438" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F2438" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G2438" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H2438" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I2438" t="n">
+        <v>135500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2438"/>
+  <dimension ref="A1:I2439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86088,6 +86088,41 @@
         <v>135500</v>
       </c>
     </row>
+    <row r="2439">
+      <c r="A2439" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2439" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2439" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2439" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F2439" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G2439" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H2439" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I2439" t="n">
+        <v>737900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2439"/>
+  <dimension ref="A1:I2440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86123,6 +86123,41 @@
         <v>737900</v>
       </c>
     </row>
+    <row r="2440">
+      <c r="A2440" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2440" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2440" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2440" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2440" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2440" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H2440" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I2440" t="n">
+        <v>42300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2440"/>
+  <dimension ref="A1:I2441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86158,6 +86158,41 @@
         <v>42300</v>
       </c>
     </row>
+    <row r="2441">
+      <c r="A2441" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2441" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2441" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2441" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F2441" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G2441" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H2441" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2441" t="n">
+        <v>156100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2441"/>
+  <dimension ref="A1:I2442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86193,6 +86193,41 @@
         <v>156100</v>
       </c>
     </row>
+    <row r="2442">
+      <c r="A2442" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2442" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2442" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2442" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F2442" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G2442" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H2442" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2442" t="n">
+        <v>328700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2442"/>
+  <dimension ref="A1:I2443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86228,6 +86228,41 @@
         <v>328700</v>
       </c>
     </row>
+    <row r="2443">
+      <c r="A2443" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2443" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2443" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2443" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F2443" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G2443" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H2443" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I2443" t="n">
+        <v>575300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2443"/>
+  <dimension ref="A1:I2444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86263,6 +86263,41 @@
         <v>575300</v>
       </c>
     </row>
+    <row r="2444">
+      <c r="A2444" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2444" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2444" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2444" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F2444" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G2444" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H2444" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I2444" t="n">
+        <v>604000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2444"/>
+  <dimension ref="A1:I2445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86298,6 +86298,41 @@
         <v>604000</v>
       </c>
     </row>
+    <row r="2445">
+      <c r="A2445" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2445" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2445" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2445" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F2445" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G2445" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H2445" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I2445" t="n">
+        <v>853200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2445"/>
+  <dimension ref="A1:I2447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86333,6 +86333,76 @@
         <v>853200</v>
       </c>
     </row>
+    <row r="2446">
+      <c r="A2446" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2446" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2446" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2446" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2446" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G2446" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H2446" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I2446" t="n">
+        <v>2634400</v>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2447" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2447" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F2447" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G2447" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H2447" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2447" t="n">
+        <v>987100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2447"/>
+  <dimension ref="A1:I2448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86403,6 +86403,41 @@
         <v>987100</v>
       </c>
     </row>
+    <row r="2448">
+      <c r="A2448" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2448" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2448" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2448" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2448" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2448" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H2448" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I2448" t="n">
+        <v>589700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2448"/>
+  <dimension ref="A1:I2451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86438,6 +86438,111 @@
         <v>589700</v>
       </c>
     </row>
+    <row r="2449">
+      <c r="A2449" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2449" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2449" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2449" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F2449" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2449" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H2449" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I2449" t="n">
+        <v>545200</v>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2450" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2450" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2450" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F2450" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2450" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H2450" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I2450" t="n">
+        <v>192300</v>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2451" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2451" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2451" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2451" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2451" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H2451" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I2451" t="n">
+        <v>263600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2451"/>
+  <dimension ref="A1:I2452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86543,6 +86543,41 @@
         <v>263600</v>
       </c>
     </row>
+    <row r="2452">
+      <c r="A2452" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2452" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2452" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2452" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F2452" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G2452" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H2452" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I2452" t="n">
+        <v>188400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2452"/>
+  <dimension ref="A1:I2453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86578,6 +86578,41 @@
         <v>188400</v>
       </c>
     </row>
+    <row r="2453">
+      <c r="A2453" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2453" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2453" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2453" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F2453" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G2453" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H2453" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I2453" t="n">
+        <v>297600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7248.xlsx
+++ b/data/7248.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2453"/>
+  <dimension ref="A1:I2456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86613,6 +86613,111 @@
         <v>297600</v>
       </c>
     </row>
+    <row r="2454">
+      <c r="A2454" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2454" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2454" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2454" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F2454" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G2454" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H2454" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2454" t="n">
+        <v>963000</v>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2455" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2455" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2455" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F2455" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2455" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H2455" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I2455" t="n">
+        <v>208100</v>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2456" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2456" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D2456" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
+      <c r="E2456" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F2456" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2456" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H2456" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2456" t="n">
+        <v>222800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
